--- a/biology/Botanique/Plantoir/Plantoir.xlsx
+++ b/biology/Botanique/Plantoir/Plantoir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un plantoir est un outil destiné à planter de jeunes plants, ou des bulbes.
 En jardinage individuel il s'agit généralement d'outils comportant une extrémité en forme de cône en bois dur, en composite ou en acier. Ils permettent d'effectuer des trous plus ou moins larges dans des sols meubles pour y placer des plants de légumes (tomates, laitues, choux, etc.), ou d'espèces aromatiques, ou de grosses graines d'espèces potagères ou ornementales. D'autres plantoirs plus larges et troués sont adaptés pour planter des bulbes (tulipes, ognon, etc.).
@@ -524,7 +536,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le calendrier républicain français, le 30e jour du mois de ventôse (généralement les 20 mars du calendrier grégorien) est officiellement dénommé jour du plantoir.
 Sur les autres projets Wikimedia :
